--- a/input_test.xlsx
+++ b/input_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ritas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ritas\PycharmProjects\create_estimate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A914AD-2B50-4CCB-AC9E-C6100154FC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0758C89-72F3-4123-94F9-51093A88273F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4836" yWindow="900" windowWidth="23484" windowHeight="14928" xr2:uid="{3BA3554A-3149-4C3E-B4AA-69705CDFACDD}"/>
+    <workbookView xWindow="7524" yWindow="1308" windowWidth="31188" windowHeight="14904" xr2:uid="{3BA3554A-3149-4C3E-B4AA-69705CDFACDD}"/>
   </bookViews>
   <sheets>
     <sheet name="기록지" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>2
+10
+12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -76,9 +87,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,7 +431,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -427,9 +441,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>2</v>
+    <row r="2" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
